--- a/biology/Médecine/1728_en_santé_et_médecine/1728_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1728_en_santé_et_médecine/1728_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1728_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1728_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1728 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1728_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1728_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adrien Helvétius devient premier médecin de la reine Marie Leszczynska[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Adrien Helvétius devient premier médecin de la reine Marie Leszczynska</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1728_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1728_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parution de l’œuvre majeure de Pierre Fauchard (1677 ou 1678-1761), Le Chirurgien dentiste, ou Traité des dents, t. 2, Paris, Jean Mariette, 1728, 1re éd. (lire en ligne), première compilation des connaissances de l'époque en odontologie.</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1728_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1728_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,13 +587,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10 janvier : Jean Goulin (mort en 1799), encyclopédiste et professeur d’histoire médicale à l’École de médecine de Paris[2].
-13 février : John Hunter (mort en 1793), chirurgien écossais. Souffrant d'angine de poitrine, il meurt d'un infarctus du myocarde après une réunion tendue du conseil d'administration de son hôpital[3].
-20 mars : Samuel Auguste Tissot (mort en 1797), médecin suisse[4].
-16 avril : Joseph Black (mort en 1799), physicien, chimiste et professeur de médecine écossais[5].
-23 septembre : Carlo Allioni (mort en 1804), médecin italien[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10 janvier : Jean Goulin (mort en 1799), encyclopédiste et professeur d’histoire médicale à l’École de médecine de Paris.
+13 février : John Hunter (mort en 1793), chirurgien écossais. Souffrant d'angine de poitrine, il meurt d'un infarctus du myocarde après une réunion tendue du conseil d'administration de son hôpital.
+20 mars : Samuel Auguste Tissot (mort en 1797), médecin suisse.
+16 avril : Joseph Black (mort en 1799), physicien, chimiste et professeur de médecine écossais.
+23 septembre : Carlo Allioni (mort en 1804), médecin italien.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1728_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1728_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8 juin : Daniel Le Clerc (né en 1652), médecin et personnalité politique suisse, pionnier de l'histoire de la médecine[7].
-26 juillet : John Freind (né en 1675), médecin, chimiste et homme politique anglais[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8 juin : Daniel Le Clerc (né en 1652), médecin et personnalité politique suisse, pionnier de l'histoire de la médecine.
+26 juillet : John Freind (né en 1675), médecin, chimiste et homme politique anglais.</t>
         </is>
       </c>
     </row>
